--- a/ERP_Module.xlsx
+++ b/ERP_Module.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ERP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A19BBAEE-E082-4105-A4FB-2CB27EA9460A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF7D96C-343E-46F1-B9FA-1C4C920604F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{10792A47-B82D-4C97-8650-957130AC55FC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sales Return" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,6 +31,35 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Sl</t>
+  </si>
+  <si>
+    <t>Module Name</t>
+  </si>
+  <si>
+    <t>sales_return</t>
+  </si>
+  <si>
+    <t>sales_return_list</t>
+  </si>
+  <si>
+    <t>sales_return_view</t>
+  </si>
+  <si>
+    <t>sales_return_edit</t>
+  </si>
+  <si>
+    <t>sales_return_delete</t>
+  </si>
+  <si>
+    <t>sales_return_confirm</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -380,12 +409,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64EC8C8A-A558-4179-8FDB-7833C55C3DBA}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ERP_Module.xlsx
+++ b/ERP_Module.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ERP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF7D96C-343E-46F1-B9FA-1C4C920604F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BFDB7EE-6D6C-43F3-B400-A122ACC94AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{10792A47-B82D-4C97-8650-957130AC55FC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{10792A47-B82D-4C97-8650-957130AC55FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sales Return" sheetId="1" r:id="rId1"/>
+    <sheet name="Purchase" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>Sl</t>
   </si>
@@ -58,6 +59,96 @@
   </si>
   <si>
     <t>sales_return_confirm</t>
+  </si>
+  <si>
+    <t>sl</t>
+  </si>
+  <si>
+    <t>Module Code</t>
+  </si>
+  <si>
+    <t>Purchase Order</t>
+  </si>
+  <si>
+    <t>Confirm Mrr</t>
+  </si>
+  <si>
+    <t>Purchase Return</t>
+  </si>
+  <si>
+    <t>reports</t>
+  </si>
+  <si>
+    <t>po_reports</t>
+  </si>
+  <si>
+    <t>po_return</t>
+  </si>
+  <si>
+    <t>po_confirm</t>
+  </si>
+  <si>
+    <t>po_create</t>
+  </si>
+  <si>
+    <t>Product Purchase Report</t>
+  </si>
+  <si>
+    <t>po_reports_product_purchase</t>
+  </si>
+  <si>
+    <t>Mrr Report By Date</t>
+  </si>
+  <si>
+    <t>po_reports_mrr_date</t>
+  </si>
+  <si>
+    <t>Item Wise Mrr Report</t>
+  </si>
+  <si>
+    <t>po_reports_item_wise</t>
+  </si>
+  <si>
+    <t>Statement by supplier</t>
+  </si>
+  <si>
+    <t>po_reports_stat_supplier</t>
+  </si>
+  <si>
+    <t>Purchase List</t>
+  </si>
+  <si>
+    <t>po_list</t>
+  </si>
+  <si>
+    <t>Url-pattern-slug</t>
+  </si>
+  <si>
+    <t>po-create</t>
+  </si>
+  <si>
+    <t>po-confirm</t>
+  </si>
+  <si>
+    <t>po-list</t>
+  </si>
+  <si>
+    <t>po-return</t>
+  </si>
+  <si>
+    <t>po-reports</t>
+  </si>
+  <si>
+    <t>po-reports-product-purchase</t>
+  </si>
+  <si>
+    <t>po-reports-mrr-date</t>
+  </si>
+  <si>
+    <t>po-reports-item-wise</t>
+  </si>
+  <si>
+    <t>po-reports-stat-supplier</t>
   </si>
 </sst>
 </file>
@@ -411,8 +502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64EC8C8A-A558-4179-8FDB-7833C55C3DBA}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,4 +553,139 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C7734E3-6A79-478F-A8BC-644D4C475B16}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>